--- a/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
+++ b/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoFCtMbCtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Models\US\Models\eps-us\InputData\elec\SoFCtMbCtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA506D96-49CB-4C13-BA28-ACBBE8A2DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79CF789-70E7-4DC0-88EA-1AD99B90A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="7650" yWindow="9600" windowWidth="23010" windowHeight="13770" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -124,6 +124,36 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the US, many coal plants are subject to rules requiring them </t>
+  </si>
+  <si>
+    <t>to retrofit to meet enviromental guidelines. This requires</t>
+  </si>
+  <si>
+    <t>a one time investment decision for plant owners. Because we don't</t>
+  </si>
+  <si>
+    <t>track individual plants in the model, we calibrate the share of forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costs that must be recovered to represent the additional revenue that is needed to </t>
+  </si>
+  <si>
+    <t>save and pay for these one time investments and apply this across the distribution</t>
+  </si>
+  <si>
+    <t>of plant types. Calibration is done by comparing model results against other sources,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">including Rhodium's ClimateDeck and EIA's Annual Energy Outlook and Electric </t>
+  </si>
+  <si>
+    <t>Power Monthly.</t>
   </si>
 </sst>
 </file>
@@ -197,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +542,54 @@
       </c>
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +605,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
